--- a/application/download/pws_template/template_pws_ibu3.xlsx
+++ b/application/download/pws_template/template_pws_ibu3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
   <si>
     <t>REKAPITULASI LAPORAN PWS-KIA (IBU)</t>
   </si>
@@ -205,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -483,26 +483,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,16 +555,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,7 +637,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -958,10 +962,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK60"/>
+  <dimension ref="A1:AMK72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA26" sqref="AA26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1167,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="34"/>
+      <c r="O5" s="32"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -1221,50 +1225,50 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="36" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="36" t="s">
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="38" t="s">
+      <c r="Q7" s="35"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="40"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="39"/>
       <c r="AMF7"/>
       <c r="AMG7"/>
       <c r="AMH7"/>
@@ -1273,74 +1277,74 @@
       <c r="AMK7"/>
     </row>
     <row r="8" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43" t="s">
+      <c r="H8" s="41"/>
+      <c r="I8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="49" t="s">
+      <c r="K8" s="41"/>
+      <c r="L8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="45" t="s">
+      <c r="M8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="47" t="s">
+      <c r="N8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="47"/>
-      <c r="P8" s="41" t="s">
+      <c r="O8" s="46"/>
+      <c r="P8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="43" t="s">
+      <c r="Q8" s="47"/>
+      <c r="R8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="41" t="s">
+      <c r="S8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="48"/>
-      <c r="U8" s="49" t="s">
+      <c r="T8" s="47"/>
+      <c r="U8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="50" t="s">
+      <c r="V8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="W8" s="50"/>
-      <c r="X8" s="51" t="s">
+      <c r="W8" s="49"/>
+      <c r="X8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51" t="s">
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="41" t="s">
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="48"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="47"/>
       <c r="AMD8"/>
       <c r="AME8"/>
       <c r="AMF8"/>
@@ -1351,27 +1355,27 @@
       <c r="AMK8"/>
     </row>
     <row r="9" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="59"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="44"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="56"/>
-      <c r="M9" s="46"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="45"/>
       <c r="N9" s="11" t="s">
         <v>13</v>
       </c>
@@ -1384,14 +1388,14 @@
       <c r="Q9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="43"/>
+      <c r="R9" s="42"/>
       <c r="S9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="43"/>
+      <c r="U9" s="42"/>
       <c r="V9" s="13" t="s">
         <v>13</v>
       </c>
@@ -1578,42 +1582,42 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="26" t="str">
-        <f t="shared" ref="I12:I26" si="0">IF(H12+G12=0,"",H12+G12)</f>
+        <f t="shared" ref="I12:I38" si="0">IF(H12+G12=0,"",H12+G12)</f>
         <v/>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
       <c r="L12" s="26" t="str">
-        <f t="shared" ref="L12:L26" si="1">IF(K12+J12=0,"",K12+J12)</f>
+        <f t="shared" ref="L12:L38" si="1">IF(K12+J12=0,"",K12+J12)</f>
         <v/>
       </c>
       <c r="M12" s="28"/>
       <c r="N12" s="26" t="str">
-        <f t="shared" ref="N12:N26" si="2">IF(AND(L12="",I12=""),"",IF(I12="",L12,IF(L12="",I12,L12+I12)))</f>
+        <f t="shared" ref="N12:N38" si="2">IF(AND(L12="",I12=""),"",IF(I12="",L12,IF(L12="",I12,L12+I12)))</f>
         <v/>
       </c>
       <c r="O12" s="28" t="str">
-        <f t="shared" ref="O12:O26" si="3">IF(N12="","",N12/D12*100)</f>
+        <f t="shared" ref="O12:O38" si="3">IF(N12="","",N12/D12*100)</f>
         <v/>
       </c>
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
       <c r="R12" s="26" t="str">
-        <f t="shared" ref="R12:R26" si="4">IF(Q12+P12=0,"",Q12+P12)</f>
+        <f t="shared" ref="R12:R38" si="4">IF(Q12+P12=0,"",Q12+P12)</f>
         <v/>
       </c>
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
       <c r="U12" s="26" t="str">
-        <f t="shared" ref="U12:U26" si="5">IF(T12+S12=0,"",T12+S12)</f>
+        <f t="shared" ref="U12:U38" si="5">IF(T12+S12=0,"",T12+S12)</f>
         <v/>
       </c>
       <c r="V12" s="26" t="str">
-        <f t="shared" ref="V12:V26" si="6">IF(AND(U12="",R12=""),"",IF(R12="",U12,IF(U12="",R12,U12+R12)))</f>
+        <f t="shared" ref="V12:V38" si="6">IF(AND(U12="",R12=""),"",IF(R12="",U12,IF(U12="",R12,U12+R12)))</f>
         <v/>
       </c>
       <c r="W12" s="28" t="str">
-        <f t="shared" ref="W12:W26" si="7">IF(V12="","",V12/D12*100)</f>
+        <f t="shared" ref="W12:W38" si="7">IF(V12="","",V12/D12*100)</f>
         <v/>
       </c>
       <c r="X12" s="26"/>
@@ -1700,7 +1704,7 @@
       <c r="AMJ13"/>
       <c r="AMK13"/>
     </row>
-    <row r="14" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1710,42 +1714,42 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I14:I25" si="8">IF(H14+G14=0,"",H14+G14)</f>
         <v/>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L14:L25" si="9">IF(K14+J14=0,"",K14+J14)</f>
         <v/>
       </c>
       <c r="M14" s="28"/>
       <c r="N14" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N14:N25" si="10">IF(AND(L14="",I14=""),"",IF(I14="",L14,IF(L14="",I14,L14+I14)))</f>
         <v/>
       </c>
       <c r="O14" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O14:O25" si="11">IF(N14="","",N14/D14*100)</f>
         <v/>
       </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
       <c r="R14" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="R14:R25" si="12">IF(Q14+P14=0,"",Q14+P14)</f>
         <v/>
       </c>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
       <c r="U14" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="U14:U25" si="13">IF(T14+S14=0,"",T14+S14)</f>
         <v/>
       </c>
       <c r="V14" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="V14:V25" si="14">IF(AND(U14="",R14=""),"",IF(R14="",U14,IF(U14="",R14,U14+R14)))</f>
         <v/>
       </c>
       <c r="W14" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="W14:W25" si="15">IF(V14="","",V14/D14*100)</f>
         <v/>
       </c>
       <c r="X14" s="26"/>
@@ -1757,16 +1761,8 @@
       <c r="AD14" s="26"/>
       <c r="AE14" s="26"/>
       <c r="AF14" s="26"/>
-      <c r="AMD14"/>
-      <c r="AME14"/>
-      <c r="AMF14"/>
-      <c r="AMG14"/>
-      <c r="AMH14"/>
-      <c r="AMI14"/>
-      <c r="AMJ14"/>
-      <c r="AMK14"/>
-    </row>
-    <row r="15" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1776,42 +1772,42 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M15" s="28"/>
       <c r="N15" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O15" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
       <c r="R15" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
       <c r="U15" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V15" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W15" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X15" s="26"/>
@@ -1823,16 +1819,8 @@
       <c r="AD15" s="26"/>
       <c r="AE15" s="26"/>
       <c r="AF15" s="26"/>
-      <c r="AMD15"/>
-      <c r="AME15"/>
-      <c r="AMF15"/>
-      <c r="AMG15"/>
-      <c r="AMH15"/>
-      <c r="AMI15"/>
-      <c r="AMJ15"/>
-      <c r="AMK15"/>
-    </row>
-    <row r="16" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1842,42 +1830,42 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
       <c r="L16" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M16" s="28"/>
       <c r="N16" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O16" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
       <c r="R16" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
       <c r="U16" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V16" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W16" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X16" s="26"/>
@@ -1889,16 +1877,8 @@
       <c r="AD16" s="26"/>
       <c r="AE16" s="26"/>
       <c r="AF16" s="26"/>
-      <c r="AMD16"/>
-      <c r="AME16"/>
-      <c r="AMF16"/>
-      <c r="AMG16"/>
-      <c r="AMH16"/>
-      <c r="AMI16"/>
-      <c r="AMJ16"/>
-      <c r="AMK16"/>
-    </row>
-    <row r="17" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1908,42 +1888,42 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M17" s="28"/>
       <c r="N17" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O17" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="26"/>
       <c r="R17" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
       <c r="U17" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V17" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W17" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X17" s="26"/>
@@ -1955,16 +1935,8 @@
       <c r="AD17" s="26"/>
       <c r="AE17" s="26"/>
       <c r="AF17" s="26"/>
-      <c r="AMD17"/>
-      <c r="AME17"/>
-      <c r="AMF17"/>
-      <c r="AMG17"/>
-      <c r="AMH17"/>
-      <c r="AMI17"/>
-      <c r="AMJ17"/>
-      <c r="AMK17"/>
-    </row>
-    <row r="18" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1974,42 +1946,42 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
       <c r="L18" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M18" s="28"/>
       <c r="N18" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O18" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
       <c r="R18" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
       <c r="U18" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V18" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W18" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X18" s="26"/>
@@ -2021,16 +1993,8 @@
       <c r="AD18" s="26"/>
       <c r="AE18" s="26"/>
       <c r="AF18" s="26"/>
-      <c r="AMD18"/>
-      <c r="AME18"/>
-      <c r="AMF18"/>
-      <c r="AMG18"/>
-      <c r="AMH18"/>
-      <c r="AMI18"/>
-      <c r="AMJ18"/>
-      <c r="AMK18"/>
-    </row>
-    <row r="19" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2040,42 +2004,42 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M19" s="28"/>
       <c r="N19" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O19" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
       <c r="U19" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V19" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W19" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X19" s="26"/>
@@ -2087,16 +2051,8 @@
       <c r="AD19" s="26"/>
       <c r="AE19" s="26"/>
       <c r="AF19" s="26"/>
-      <c r="AMD19"/>
-      <c r="AME19"/>
-      <c r="AMF19"/>
-      <c r="AMG19"/>
-      <c r="AMH19"/>
-      <c r="AMI19"/>
-      <c r="AMJ19"/>
-      <c r="AMK19"/>
-    </row>
-    <row r="20" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2106,42 +2062,42 @@
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M20" s="28"/>
       <c r="N20" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O20" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
       <c r="R20" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
       <c r="U20" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V20" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W20" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X20" s="26"/>
@@ -2153,16 +2109,8 @@
       <c r="AD20" s="26"/>
       <c r="AE20" s="26"/>
       <c r="AF20" s="26"/>
-      <c r="AMD20"/>
-      <c r="AME20"/>
-      <c r="AMF20"/>
-      <c r="AMG20"/>
-      <c r="AMH20"/>
-      <c r="AMI20"/>
-      <c r="AMJ20"/>
-      <c r="AMK20"/>
-    </row>
-    <row r="21" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2172,42 +2120,42 @@
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
       <c r="L21" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M21" s="28"/>
       <c r="N21" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O21" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
       <c r="U21" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V21" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W21" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X21" s="26"/>
@@ -2219,16 +2167,8 @@
       <c r="AD21" s="26"/>
       <c r="AE21" s="26"/>
       <c r="AF21" s="26"/>
-      <c r="AMD21"/>
-      <c r="AME21"/>
-      <c r="AMF21"/>
-      <c r="AMG21"/>
-      <c r="AMH21"/>
-      <c r="AMI21"/>
-      <c r="AMJ21"/>
-      <c r="AMK21"/>
-    </row>
-    <row r="22" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2238,42 +2178,42 @@
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M22" s="28"/>
       <c r="N22" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O22" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
       <c r="R22" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
       <c r="U22" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V22" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W22" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X22" s="26"/>
@@ -2285,63 +2225,55 @@
       <c r="AD22" s="26"/>
       <c r="AE22" s="26"/>
       <c r="AF22" s="26"/>
-      <c r="AMD22"/>
-      <c r="AME22"/>
-      <c r="AMF22"/>
-      <c r="AMG22"/>
-      <c r="AMH22"/>
-      <c r="AMI22"/>
-      <c r="AMJ22"/>
-      <c r="AMK22"/>
-    </row>
-    <row r="23" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25" t="s">
+    </row>
+    <row r="23" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
       <c r="L23" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M23" s="28"/>
       <c r="N23" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O23" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P23" s="26"/>
       <c r="Q23" s="26"/>
       <c r="R23" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
       <c r="U23" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V23" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W23" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X23" s="26"/>
@@ -2353,63 +2285,55 @@
       <c r="AD23" s="26"/>
       <c r="AE23" s="26"/>
       <c r="AF23" s="26"/>
-      <c r="AMD23"/>
-      <c r="AME23"/>
-      <c r="AMF23"/>
-      <c r="AMG23"/>
-      <c r="AMH23"/>
-      <c r="AMI23"/>
-      <c r="AMJ23"/>
-      <c r="AMK23"/>
-    </row>
-    <row r="24" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="29" t="s">
+    </row>
+    <row r="24" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
+      <c r="B24" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M24" s="28"/>
       <c r="N24" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O24" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
       <c r="R24" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
       <c r="U24" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V24" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W24" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X24" s="26"/>
@@ -2421,63 +2345,55 @@
       <c r="AD24" s="26"/>
       <c r="AE24" s="26"/>
       <c r="AF24" s="26"/>
-      <c r="AMD24"/>
-      <c r="AME24"/>
-      <c r="AMF24"/>
-      <c r="AMG24"/>
-      <c r="AMH24"/>
-      <c r="AMI24"/>
-      <c r="AMJ24"/>
-      <c r="AMK24"/>
-    </row>
-    <row r="25" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
+    </row>
+    <row r="25" spans="1:1025" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
       <c r="B25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="26"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
       <c r="L25" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M25" s="28"/>
       <c r="N25" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O25" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
       <c r="R25" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
       <c r="U25" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V25" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W25" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X25" s="26"/>
@@ -2489,60 +2405,22 @@
       <c r="AD25" s="26"/>
       <c r="AE25" s="26"/>
       <c r="AF25" s="26"/>
-      <c r="ALZ25"/>
-      <c r="AMA25"/>
-      <c r="AMB25"/>
-      <c r="AMC25"/>
-      <c r="AMD25"/>
-      <c r="AME25"/>
-      <c r="AMF25"/>
-      <c r="AMG25"/>
-      <c r="AMH25"/>
-      <c r="AMI25"/>
-      <c r="AMJ25"/>
-      <c r="AMK25"/>
-    </row>
-    <row r="26" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="60">
-        <f>SUM(C11:C25)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="60">
-        <f t="shared" ref="D26:K26" si="8">SUM(D11:D25)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="26" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J26" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
       <c r="L26" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2556,26 +2434,14 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P26" s="60">
-        <f t="shared" ref="P26:Q26" si="9">SUM(P11:P25)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="60">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
       <c r="R26" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="S26" s="60">
-        <f t="shared" ref="S26:T26" si="10">SUM(S11:S25)</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="60">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
       <c r="U26" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2588,42 +2454,17 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X26" s="60">
-        <f t="shared" ref="X26" si="11">SUM(X11:X25)</f>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="60">
-        <f t="shared" ref="Y26" si="12">SUM(Y11:Y25)</f>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="60">
-        <f t="shared" ref="Z26" si="13">SUM(Z11:Z25)</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="60">
-        <f t="shared" ref="AA26" si="14">SUM(AA11:AA25)</f>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="60">
-        <f t="shared" ref="AB26" si="15">SUM(AB11:AB25)</f>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="60">
-        <f t="shared" ref="AC26" si="16">SUM(AC11:AC25)</f>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="60">
-        <f t="shared" ref="AD26" si="17">SUM(AD11:AD25)</f>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="60">
-        <f t="shared" ref="AE26:AF26" si="18">SUM(AE11:AE25)</f>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="60">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AMD26"/>
+      <c r="AME26"/>
       <c r="AMF26"/>
       <c r="AMG26"/>
       <c r="AMH26"/>
@@ -2631,41 +2472,65 @@
       <c r="AMJ26"/>
       <c r="AMK26"/>
     </row>
-    <row r="27" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="6"/>
+    <row r="27" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M27" s="28"/>
+      <c r="N27" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O27" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V27" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W27" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AMD27"/>
+      <c r="AME27"/>
       <c r="AMF27"/>
       <c r="AMG27"/>
       <c r="AMH27"/>
@@ -2673,431 +2538,806 @@
       <c r="AMJ27"/>
       <c r="AMK27"/>
     </row>
-    <row r="28" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
+    <row r="28" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="25"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M28" s="28"/>
+      <c r="N28" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O28" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V28" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W28" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AMD28"/>
+      <c r="AME28"/>
+      <c r="AMF28"/>
+      <c r="AMG28"/>
       <c r="AMH28"/>
       <c r="AMI28"/>
       <c r="AMJ28"/>
       <c r="AMK28"/>
     </row>
-    <row r="29" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
+    <row r="29" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M29" s="28"/>
+      <c r="N29" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O29" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V29" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W29" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AMD29"/>
+      <c r="AME29"/>
+      <c r="AMF29"/>
+      <c r="AMG29"/>
       <c r="AMH29"/>
       <c r="AMI29"/>
       <c r="AMJ29"/>
       <c r="AMK29"/>
     </row>
-    <row r="30" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
+    <row r="30" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M30" s="28"/>
+      <c r="N30" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O30" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V30" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W30" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AMD30"/>
+      <c r="AME30"/>
+      <c r="AMF30"/>
+      <c r="AMG30"/>
       <c r="AMH30"/>
       <c r="AMI30"/>
       <c r="AMJ30"/>
       <c r="AMK30"/>
     </row>
-    <row r="31" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
+    <row r="31" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M31" s="28"/>
+      <c r="N31" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O31" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V31" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W31" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AMD31"/>
+      <c r="AME31"/>
+      <c r="AMF31"/>
+      <c r="AMG31"/>
       <c r="AMH31"/>
       <c r="AMI31"/>
       <c r="AMJ31"/>
       <c r="AMK31"/>
     </row>
-    <row r="32" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
+    <row r="32" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="25"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M32" s="28"/>
+      <c r="N32" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O32" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V32" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W32" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AMD32"/>
+      <c r="AME32"/>
+      <c r="AMF32"/>
+      <c r="AMG32"/>
       <c r="AMH32"/>
       <c r="AMI32"/>
       <c r="AMJ32"/>
       <c r="AMK32"/>
     </row>
-    <row r="33" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M33" s="28"/>
+      <c r="N33" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O33" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V33" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W33" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AMD33"/>
+      <c r="AME33"/>
+      <c r="AMF33"/>
+      <c r="AMG33"/>
+      <c r="AMH33"/>
+      <c r="AMI33"/>
+      <c r="AMJ33"/>
+      <c r="AMK33"/>
+    </row>
+    <row r="34" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="25"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M34" s="28"/>
+      <c r="N34" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O34" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V34" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W34" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AMD34"/>
+      <c r="AME34"/>
+      <c r="AMF34"/>
+      <c r="AMG34"/>
+      <c r="AMH34"/>
+      <c r="AMI34"/>
+      <c r="AMJ34"/>
+      <c r="AMK34"/>
+    </row>
+    <row r="35" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="61"/>
+      <c r="B35" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
-    </row>
-    <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="1" t="s">
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M35" s="28"/>
+      <c r="N35" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O35" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V35" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W35" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AMD35"/>
+      <c r="AME35"/>
+      <c r="AMF35"/>
+      <c r="AMG35"/>
+      <c r="AMH35"/>
+      <c r="AMI35"/>
+      <c r="AMJ35"/>
+      <c r="AMK35"/>
+    </row>
+    <row r="36" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
-    </row>
-    <row r="35" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="1" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M36" s="28"/>
+      <c r="N36" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O36" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V36" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W36" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AMD36"/>
+      <c r="AME36"/>
+      <c r="AMF36"/>
+      <c r="AMG36"/>
+      <c r="AMH36"/>
+      <c r="AMI36"/>
+      <c r="AMJ36"/>
+      <c r="AMK36"/>
+    </row>
+    <row r="37" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="65"/>
+      <c r="B37" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-    </row>
-    <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-    </row>
-    <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="6"/>
-      <c r="AD37" s="6"/>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="6"/>
-    </row>
-    <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-    </row>
-    <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M37" s="28"/>
+      <c r="N37" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O37" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V37" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W37" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
+      <c r="ALZ37"/>
+      <c r="AMA37"/>
+      <c r="AMB37"/>
+      <c r="AMC37"/>
+      <c r="AMD37"/>
+      <c r="AME37"/>
+      <c r="AMF37"/>
+      <c r="AMG37"/>
+      <c r="AMH37"/>
+      <c r="AMI37"/>
+      <c r="AMJ37"/>
+      <c r="AMK37"/>
+    </row>
+    <row r="38" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="34"/>
+      <c r="C38" s="33">
+        <f>SUM(C11:C37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="33">
+        <f t="shared" ref="D38:K38" si="16">SUM(D11:D37)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J38" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M38" s="28"/>
+      <c r="N38" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O38" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P38" s="33">
+        <f t="shared" ref="P38:Q38" si="17">SUM(P11:P37)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S38" s="33">
+        <f t="shared" ref="S38:T38" si="18">SUM(S11:S37)</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V38" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W38" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X38" s="33">
+        <f t="shared" ref="X38" si="19">SUM(X11:X37)</f>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="33">
+        <f t="shared" ref="Y38" si="20">SUM(Y11:Y37)</f>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="33">
+        <f t="shared" ref="Z38" si="21">SUM(Z11:Z37)</f>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="33">
+        <f t="shared" ref="AA38" si="22">SUM(AA11:AA37)</f>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="33">
+        <f t="shared" ref="AB38" si="23">SUM(AB11:AB37)</f>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="33">
+        <f t="shared" ref="AC38" si="24">SUM(AC11:AC37)</f>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="33">
+        <f t="shared" ref="AD38" si="25">SUM(AD11:AD37)</f>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="33">
+        <f t="shared" ref="AE38:AF38" si="26">SUM(AE11:AE37)</f>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AMF38"/>
+      <c r="AMG38"/>
+      <c r="AMH38"/>
+      <c r="AMI38"/>
+      <c r="AMJ38"/>
+      <c r="AMK38"/>
+    </row>
+    <row r="39" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>33</v>
@@ -3125,15 +3365,21 @@
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="33"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
       <c r="AE39" s="6"/>
       <c r="AF39" s="6"/>
-    </row>
-    <row r="40" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AMF39"/>
+      <c r="AMG39"/>
+      <c r="AMH39"/>
+      <c r="AMI39"/>
+      <c r="AMJ39"/>
+      <c r="AMK39"/>
+    </row>
+    <row r="40" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>33</v>
@@ -3161,111 +3407,571 @@
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="31"/>
+      <c r="Z40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA40" s="29"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
       <c r="AE40" s="6"/>
       <c r="AF40" s="6"/>
-    </row>
-    <row r="41" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AMH40"/>
+      <c r="AMI40"/>
+      <c r="AMJ40"/>
+      <c r="AMK40"/>
+    </row>
+    <row r="41" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AMH41"/>
+      <c r="AMI41"/>
+      <c r="AMJ41"/>
+      <c r="AMK41"/>
+    </row>
+    <row r="42" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AMH42"/>
+      <c r="AMI42"/>
+      <c r="AMJ42"/>
+      <c r="AMK42"/>
+    </row>
+    <row r="43" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AMH43"/>
+      <c r="AMI43"/>
+      <c r="AMJ43"/>
+      <c r="AMK43"/>
+    </row>
+    <row r="44" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AMH44"/>
+      <c r="AMI44"/>
+      <c r="AMJ44"/>
+      <c r="AMK44"/>
+    </row>
+    <row r="45" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+    </row>
+    <row r="46" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+    </row>
+    <row r="47" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+    </row>
+    <row r="48" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+    </row>
+    <row r="49" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+    </row>
+    <row r="50" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
+    </row>
+    <row r="51" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="30"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="31"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6"/>
+    </row>
+    <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="30"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+    </row>
+    <row r="53" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3280,7 +3986,7 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="G7:O7"/>
     <mergeCell ref="P7:W7"/>
     <mergeCell ref="X7:AF7"/>

--- a/application/download/pws_template/template_pws_ibu3.xlsx
+++ b/application/download/pws_template/template_pws_ibu3.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\dho\application\download\pws_template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10245" windowHeight="8175"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="10248" windowHeight="8172"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -562,81 +567,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -659,6 +589,81 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,6 +674,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -964,47 +972,47 @@
   </sheetPr>
   <dimension ref="A1:AMK72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.09765625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.69921875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="7.8984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.69921875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.8984375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.296875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.296875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="9.69921875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="7.69921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.3828125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.61328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.69140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.4609375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.69140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="7.921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.69140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.921875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="7.921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.3046875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3046875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="9.69140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="7.69140625" style="5" customWidth="1"/>
     <col min="17" max="17" width="7" style="5" customWidth="1"/>
-    <col min="18" max="18" width="8.59765625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="7.8984375" style="5" customWidth="1"/>
-    <col min="20" max="20" width="8.09765625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="7.8984375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="7.296875" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.61328125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="7.921875" style="5" customWidth="1"/>
+    <col min="20" max="20" width="8.07421875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="7.921875" style="5" customWidth="1"/>
+    <col min="22" max="22" width="7.3046875" style="5" customWidth="1"/>
     <col min="23" max="23" width="9" style="5" customWidth="1"/>
-    <col min="24" max="24" width="5.59765625" style="5" customWidth="1"/>
-    <col min="25" max="25" width="5.09765625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="8.296875" style="5" customWidth="1"/>
-    <col min="27" max="28" width="5.3984375" style="5" customWidth="1"/>
-    <col min="29" max="29" width="5.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.796875" style="5" customWidth="1"/>
-    <col min="31" max="31" width="6.09765625" style="5" customWidth="1"/>
-    <col min="32" max="32" width="6.796875" style="5" customWidth="1"/>
-    <col min="33" max="1025" width="11.69921875" style="5" customWidth="1"/>
+    <col min="24" max="24" width="5.61328125" style="5" customWidth="1"/>
+    <col min="25" max="25" width="5.07421875" style="5" customWidth="1"/>
+    <col min="26" max="26" width="8.3046875" style="5" customWidth="1"/>
+    <col min="27" max="28" width="5.3828125" style="5" customWidth="1"/>
+    <col min="29" max="29" width="5.23046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.765625" style="5" customWidth="1"/>
+    <col min="31" max="31" width="6.07421875" style="5" customWidth="1"/>
+    <col min="32" max="32" width="6.765625" style="5" customWidth="1"/>
+    <col min="33" max="1025" width="11.69140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1050,7 @@
       <c r="AE1" s="6"/>
       <c r="AF1" s="6"/>
     </row>
-    <row r="2" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1078,7 +1086,7 @@
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
     </row>
-    <row r="3" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1114,7 +1122,7 @@
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
     </row>
-    <row r="4" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1150,7 +1158,7 @@
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
     </row>
-    <row r="5" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
@@ -1188,7 +1196,7 @@
       <c r="AMJ5"/>
       <c r="AMK5"/>
     </row>
-    <row r="6" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1224,51 +1232,51 @@
       <c r="AMJ6"/>
       <c r="AMK6"/>
     </row>
-    <row r="7" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+    <row r="7" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="35" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="35" t="s">
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="37" t="s">
+      <c r="Q7" s="44"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="39"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="48"/>
       <c r="AMF7"/>
       <c r="AMG7"/>
       <c r="AMH7"/>
@@ -1276,75 +1284,75 @@
       <c r="AMJ7"/>
       <c r="AMK7"/>
     </row>
-    <row r="8" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51" t="s">
+    <row r="8" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="48" t="s">
+      <c r="K8" s="50"/>
+      <c r="L8" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="46" t="s">
+      <c r="N8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="46"/>
-      <c r="P8" s="40" t="s">
+      <c r="O8" s="55"/>
+      <c r="P8" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="42" t="s">
+      <c r="Q8" s="56"/>
+      <c r="R8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="40" t="s">
+      <c r="S8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="47"/>
-      <c r="U8" s="48" t="s">
+      <c r="T8" s="56"/>
+      <c r="U8" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="49" t="s">
+      <c r="V8" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="W8" s="49"/>
-      <c r="X8" s="50" t="s">
+      <c r="W8" s="58"/>
+      <c r="X8" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50" t="s">
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="40" t="s">
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="47"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="56"/>
       <c r="AMD8"/>
       <c r="AME8"/>
       <c r="AMF8"/>
@@ -1354,28 +1362,28 @@
       <c r="AMJ8"/>
       <c r="AMK8"/>
     </row>
-    <row r="9" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="58"/>
+    <row r="9" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="43"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="45"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="54"/>
       <c r="N9" s="11" t="s">
         <v>13</v>
       </c>
@@ -1388,14 +1396,14 @@
       <c r="Q9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="42"/>
+      <c r="R9" s="51"/>
       <c r="S9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="42"/>
+      <c r="U9" s="51"/>
       <c r="V9" s="13" t="s">
         <v>13</v>
       </c>
@@ -1438,7 +1446,7 @@
       <c r="AMJ9"/>
       <c r="AMK9"/>
     </row>
-    <row r="10" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -1506,7 +1514,7 @@
       <c r="AMJ10"/>
       <c r="AMK10"/>
     </row>
-    <row r="11" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1554,15 +1562,42 @@
         <f>IF(V11="","",V11/D11*100)</f>
         <v/>
       </c>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
+      <c r="X11" s="26" t="str">
+        <f>IF(G11+P11=0,"",G11+P11)</f>
+        <v/>
+      </c>
+      <c r="Y11" s="26" t="str">
+        <f>IF(H11+Q11=0,"",H11+Q11)</f>
+        <v/>
+      </c>
+      <c r="Z11" s="26" t="str">
+        <f>IF(AND(X11="",Y11=""),"",IF(X11="",Y11,IF(Y11="",X11,X11+Y11)))</f>
+        <v/>
+      </c>
+      <c r="AA11" s="26" t="str">
+        <f>IF(J11+S11=0,"",J11+S11)</f>
+        <v/>
+      </c>
+      <c r="AB11" s="26" t="str">
+        <f>IF(K11+T11=0,"",K11+T11)</f>
+        <v/>
+      </c>
+      <c r="AC11" s="26" t="str">
+        <f>IF(AND(AA11="",AB11=""),"",IF(AA11="",AB11,IF(AB11="",AA11,AA11+AB11)))</f>
+        <v/>
+      </c>
+      <c r="AD11" s="26" t="str">
+        <f>IF(AND(X11="",AA11=""),"",IF(X11="",AA11,IF(AA11="",X11,X11+AA11)))</f>
+        <v/>
+      </c>
+      <c r="AE11" s="26" t="str">
+        <f>IF(AND(Y11="",AB11=""),"",IF(Y11="",AB11,IF(AB11="",Y11,Y11+AB11)))</f>
+        <v/>
+      </c>
+      <c r="AF11" s="26" t="str">
+        <f>IF(AND(AD11="",AE11=""),"",IF(AD11="",AE11,IF(AE11="",AD11,AD11+AE11)))</f>
+        <v/>
+      </c>
       <c r="AMD11"/>
       <c r="AME11"/>
       <c r="AMF11"/>
@@ -1572,7 +1607,7 @@
       <c r="AMJ11"/>
       <c r="AMK11"/>
     </row>
-    <row r="12" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1620,15 +1655,42 @@
         <f t="shared" ref="W12:W38" si="7">IF(V12="","",V12/D12*100)</f>
         <v/>
       </c>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
+      <c r="X12" s="26" t="str">
+        <f t="shared" ref="X12:X16" si="8">IF(G12+P12=0,"",G12+P12)</f>
+        <v/>
+      </c>
+      <c r="Y12" s="26" t="str">
+        <f t="shared" ref="Y12:Y16" si="9">IF(H12+Q12=0,"",H12+Q12)</f>
+        <v/>
+      </c>
+      <c r="Z12" s="26" t="str">
+        <f t="shared" ref="Z12:Z16" si="10">IF(AND(X12="",Y12=""),"",IF(X12="",Y12,IF(Y12="",X12,X12+Y12)))</f>
+        <v/>
+      </c>
+      <c r="AA12" s="26" t="str">
+        <f t="shared" ref="AA12:AA16" si="11">IF(J12+S12=0,"",J12+S12)</f>
+        <v/>
+      </c>
+      <c r="AB12" s="26" t="str">
+        <f t="shared" ref="AB12:AB16" si="12">IF(K12+T12=0,"",K12+T12)</f>
+        <v/>
+      </c>
+      <c r="AC12" s="26" t="str">
+        <f t="shared" ref="AC12:AC16" si="13">IF(AND(AA12="",AB12=""),"",IF(AA12="",AB12,IF(AB12="",AA12,AA12+AB12)))</f>
+        <v/>
+      </c>
+      <c r="AD12" s="26" t="str">
+        <f t="shared" ref="AD12:AD16" si="14">IF(AND(X12="",AA12=""),"",IF(X12="",AA12,IF(AA12="",X12,X12+AA12)))</f>
+        <v/>
+      </c>
+      <c r="AE12" s="26" t="str">
+        <f t="shared" ref="AE12:AE16" si="15">IF(AND(Y12="",AB12=""),"",IF(Y12="",AB12,IF(AB12="",Y12,Y12+AB12)))</f>
+        <v/>
+      </c>
+      <c r="AF12" s="26" t="str">
+        <f t="shared" ref="AF12:AF16" si="16">IF(AND(AD12="",AE12=""),"",IF(AD12="",AE12,IF(AE12="",AD12,AD12+AE12)))</f>
+        <v/>
+      </c>
       <c r="AMD12"/>
       <c r="AME12"/>
       <c r="AMF12"/>
@@ -1638,7 +1700,7 @@
       <c r="AMJ12"/>
       <c r="AMK12"/>
     </row>
-    <row r="13" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1686,15 +1748,42 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
+      <c r="X13" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y13" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z13" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA13" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB13" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC13" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AD13" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AE13" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AF13" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="AMD13"/>
       <c r="AME13"/>
       <c r="AMF13"/>
@@ -1704,7 +1793,7 @@
       <c r="AMJ13"/>
       <c r="AMK13"/>
     </row>
-    <row r="14" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1714,55 +1803,82 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="26" t="str">
-        <f t="shared" ref="I14:I25" si="8">IF(H14+G14=0,"",H14+G14)</f>
+        <f t="shared" ref="I14:I25" si="17">IF(H14+G14=0,"",H14+G14)</f>
         <v/>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="26" t="str">
-        <f t="shared" ref="L14:L25" si="9">IF(K14+J14=0,"",K14+J14)</f>
+        <f t="shared" ref="L14:L25" si="18">IF(K14+J14=0,"",K14+J14)</f>
         <v/>
       </c>
       <c r="M14" s="28"/>
       <c r="N14" s="26" t="str">
-        <f t="shared" ref="N14:N25" si="10">IF(AND(L14="",I14=""),"",IF(I14="",L14,IF(L14="",I14,L14+I14)))</f>
+        <f t="shared" ref="N14:N25" si="19">IF(AND(L14="",I14=""),"",IF(I14="",L14,IF(L14="",I14,L14+I14)))</f>
         <v/>
       </c>
       <c r="O14" s="28" t="str">
-        <f t="shared" ref="O14:O25" si="11">IF(N14="","",N14/D14*100)</f>
+        <f t="shared" ref="O14:O25" si="20">IF(N14="","",N14/D14*100)</f>
         <v/>
       </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
       <c r="R14" s="26" t="str">
-        <f t="shared" ref="R14:R25" si="12">IF(Q14+P14=0,"",Q14+P14)</f>
+        <f t="shared" ref="R14:R25" si="21">IF(Q14+P14=0,"",Q14+P14)</f>
         <v/>
       </c>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
       <c r="U14" s="26" t="str">
-        <f t="shared" ref="U14:U25" si="13">IF(T14+S14=0,"",T14+S14)</f>
+        <f t="shared" ref="U14:U25" si="22">IF(T14+S14=0,"",T14+S14)</f>
         <v/>
       </c>
       <c r="V14" s="26" t="str">
-        <f t="shared" ref="V14:V25" si="14">IF(AND(U14="",R14=""),"",IF(R14="",U14,IF(U14="",R14,U14+R14)))</f>
+        <f t="shared" ref="V14:V25" si="23">IF(AND(U14="",R14=""),"",IF(R14="",U14,IF(U14="",R14,U14+R14)))</f>
         <v/>
       </c>
       <c r="W14" s="28" t="str">
-        <f t="shared" ref="W14:W25" si="15">IF(V14="","",V14/D14*100)</f>
-        <v/>
-      </c>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-    </row>
-    <row r="15" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="W14:W25" si="24">IF(V14="","",V14/D14*100)</f>
+        <v/>
+      </c>
+      <c r="X14" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y14" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z14" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA14" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB14" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC14" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AD14" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AE14" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AF14" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1772,55 +1888,82 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M15" s="28"/>
       <c r="N15" s="26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O15" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
       <c r="R15" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
       <c r="U15" s="26" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="V15" s="26" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="W15" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="X15" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y15" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z15" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA15" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB15" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC15" s="26" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="V15" s="26" t="str">
+      <c r="AD15" s="26" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W15" s="28" t="str">
+      <c r="AE15" s="26" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-    </row>
-    <row r="16" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF15" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1830,55 +1973,82 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
       <c r="L16" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M16" s="28"/>
       <c r="N16" s="26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O16" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
       <c r="R16" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
       <c r="U16" s="26" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="V16" s="26" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="W16" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="X16" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y16" s="26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z16" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AA16" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB16" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AC16" s="26" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="V16" s="26" t="str">
+      <c r="AD16" s="26" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="W16" s="28" t="str">
+      <c r="AE16" s="26" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-    </row>
-    <row r="17" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF16" s="26" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1888,42 +2058,42 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M17" s="28"/>
       <c r="N17" s="26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O17" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="26"/>
       <c r="R17" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
       <c r="U17" s="26" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V17" s="26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W17" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="X17" s="26"/>
@@ -1936,7 +2106,7 @@
       <c r="AE17" s="26"/>
       <c r="AF17" s="26"/>
     </row>
-    <row r="18" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1946,42 +2116,42 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
       <c r="L18" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M18" s="28"/>
       <c r="N18" s="26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O18" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
       <c r="R18" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
       <c r="U18" s="26" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V18" s="26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W18" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="X18" s="26"/>
@@ -1994,7 +2164,7 @@
       <c r="AE18" s="26"/>
       <c r="AF18" s="26"/>
     </row>
-    <row r="19" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2004,42 +2174,42 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M19" s="28"/>
       <c r="N19" s="26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O19" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
       <c r="U19" s="26" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V19" s="26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W19" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="X19" s="26"/>
@@ -2052,7 +2222,7 @@
       <c r="AE19" s="26"/>
       <c r="AF19" s="26"/>
     </row>
-    <row r="20" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2062,42 +2232,42 @@
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M20" s="28"/>
       <c r="N20" s="26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O20" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
       <c r="R20" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
       <c r="U20" s="26" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V20" s="26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W20" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="X20" s="26"/>
@@ -2110,7 +2280,7 @@
       <c r="AE20" s="26"/>
       <c r="AF20" s="26"/>
     </row>
-    <row r="21" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2120,42 +2290,42 @@
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
       <c r="L21" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M21" s="28"/>
       <c r="N21" s="26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O21" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
       <c r="U21" s="26" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V21" s="26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W21" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="X21" s="26"/>
@@ -2168,7 +2338,7 @@
       <c r="AE21" s="26"/>
       <c r="AF21" s="26"/>
     </row>
-    <row r="22" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2178,42 +2348,42 @@
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M22" s="28"/>
       <c r="N22" s="26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O22" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
       <c r="R22" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
       <c r="U22" s="26" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V22" s="26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W22" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="X22" s="26"/>
@@ -2226,54 +2396,54 @@
       <c r="AE22" s="26"/>
       <c r="AF22" s="26"/>
     </row>
-    <row r="23" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
-      <c r="B23" s="61" t="s">
+    <row r="23" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
       <c r="L23" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M23" s="28"/>
       <c r="N23" s="26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O23" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P23" s="26"/>
       <c r="Q23" s="26"/>
       <c r="R23" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
       <c r="U23" s="26" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V23" s="26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W23" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="X23" s="26"/>
@@ -2286,54 +2456,54 @@
       <c r="AE23" s="26"/>
       <c r="AF23" s="26"/>
     </row>
-    <row r="24" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
-      <c r="B24" s="64" t="s">
+    <row r="24" spans="1:1025" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="34"/>
+      <c r="B24" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M24" s="28"/>
       <c r="N24" s="26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O24" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
       <c r="R24" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
       <c r="U24" s="26" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V24" s="26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W24" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="X24" s="26"/>
@@ -2346,54 +2516,54 @@
       <c r="AE24" s="26"/>
       <c r="AF24" s="26"/>
     </row>
-    <row r="25" spans="1:1025" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="62"/>
+    <row r="25" spans="1:1025" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
       <c r="B25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
       <c r="L25" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M25" s="28"/>
       <c r="N25" s="26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O25" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
       <c r="R25" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
       <c r="U25" s="26" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V25" s="26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W25" s="28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="X25" s="26"/>
@@ -2406,7 +2576,7 @@
       <c r="AE25" s="26"/>
       <c r="AF25" s="26"/>
     </row>
-    <row r="26" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2472,7 +2642,7 @@
       <c r="AMJ26"/>
       <c r="AMK26"/>
     </row>
-    <row r="27" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2538,7 +2708,7 @@
       <c r="AMJ27"/>
       <c r="AMK27"/>
     </row>
-    <row r="28" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2604,7 +2774,7 @@
       <c r="AMJ28"/>
       <c r="AMK28"/>
     </row>
-    <row r="29" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2670,7 +2840,7 @@
       <c r="AMJ29"/>
       <c r="AMK29"/>
     </row>
-    <row r="30" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2736,7 +2906,7 @@
       <c r="AMJ30"/>
       <c r="AMK30"/>
     </row>
-    <row r="31" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2802,7 +2972,7 @@
       <c r="AMJ31"/>
       <c r="AMK31"/>
     </row>
-    <row r="32" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2868,7 +3038,7 @@
       <c r="AMJ32"/>
       <c r="AMK32"/>
     </row>
-    <row r="33" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2934,7 +3104,7 @@
       <c r="AMJ33"/>
       <c r="AMK33"/>
     </row>
-    <row r="34" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3000,15 +3170,15 @@
       <c r="AMJ34"/>
       <c r="AMK34"/>
     </row>
-    <row r="35" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61" t="s">
+    <row r="35" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="26" t="str">
@@ -3068,9 +3238,9 @@
       <c r="AMJ35"/>
       <c r="AMK35"/>
     </row>
-    <row r="36" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="3"/>
@@ -3136,15 +3306,15 @@
       <c r="AMJ36"/>
       <c r="AMK36"/>
     </row>
-    <row r="37" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="65"/>
-      <c r="B37" s="60" t="s">
+    <row r="37" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="40"/>
+      <c r="B37" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="66"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
       <c r="I37" s="26" t="str">
@@ -3208,33 +3378,33 @@
       <c r="AMJ37"/>
       <c r="AMK37"/>
     </row>
-    <row r="38" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
+    <row r="38" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="33">
         <f>SUM(C11:C37)</f>
         <v>0</v>
       </c>
       <c r="D38" s="33">
-        <f t="shared" ref="D38:K38" si="16">SUM(D11:D37)</f>
+        <f t="shared" ref="D38:K38" si="25">SUM(D11:D37)</f>
         <v>0</v>
       </c>
       <c r="E38" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F38" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G38" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H38" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I38" s="26" t="str">
@@ -3242,11 +3412,11 @@
         <v/>
       </c>
       <c r="J38" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K38" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L38" s="26" t="str">
@@ -3263,11 +3433,11 @@
         <v/>
       </c>
       <c r="P38" s="33">
-        <f t="shared" ref="P38:Q38" si="17">SUM(P11:P37)</f>
+        <f t="shared" ref="P38:Q38" si="26">SUM(P11:P37)</f>
         <v>0</v>
       </c>
       <c r="Q38" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R38" s="26" t="str">
@@ -3275,11 +3445,11 @@
         <v/>
       </c>
       <c r="S38" s="33">
-        <f t="shared" ref="S38:T38" si="18">SUM(S11:S37)</f>
+        <f t="shared" ref="S38:T38" si="27">SUM(S11:S37)</f>
         <v>0</v>
       </c>
       <c r="T38" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U38" s="26" t="str">
@@ -3295,39 +3465,39 @@
         <v/>
       </c>
       <c r="X38" s="33">
-        <f t="shared" ref="X38" si="19">SUM(X11:X37)</f>
+        <f t="shared" ref="X38" si="28">SUM(X11:X37)</f>
         <v>0</v>
       </c>
       <c r="Y38" s="33">
-        <f t="shared" ref="Y38" si="20">SUM(Y11:Y37)</f>
+        <f t="shared" ref="Y38" si="29">SUM(Y11:Y37)</f>
         <v>0</v>
       </c>
       <c r="Z38" s="33">
-        <f t="shared" ref="Z38" si="21">SUM(Z11:Z37)</f>
+        <f t="shared" ref="Z38" si="30">SUM(Z11:Z37)</f>
         <v>0</v>
       </c>
       <c r="AA38" s="33">
-        <f t="shared" ref="AA38" si="22">SUM(AA11:AA37)</f>
+        <f t="shared" ref="AA38" si="31">SUM(AA11:AA37)</f>
         <v>0</v>
       </c>
       <c r="AB38" s="33">
-        <f t="shared" ref="AB38" si="23">SUM(AB11:AB37)</f>
+        <f t="shared" ref="AB38" si="32">SUM(AB11:AB37)</f>
         <v>0</v>
       </c>
       <c r="AC38" s="33">
-        <f t="shared" ref="AC38" si="24">SUM(AC11:AC37)</f>
+        <f t="shared" ref="AC38" si="33">SUM(AC11:AC37)</f>
         <v>0</v>
       </c>
       <c r="AD38" s="33">
-        <f t="shared" ref="AD38" si="25">SUM(AD11:AD37)</f>
+        <f t="shared" ref="AD38" si="34">SUM(AD11:AD37)</f>
         <v>0</v>
       </c>
       <c r="AE38" s="33">
-        <f t="shared" ref="AE38:AF38" si="26">SUM(AE11:AE37)</f>
+        <f t="shared" ref="AE38:AF38" si="35">SUM(AE11:AE37)</f>
         <v>0</v>
       </c>
       <c r="AF38" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AMF38"/>
@@ -3337,7 +3507,7 @@
       <c r="AMJ38"/>
       <c r="AMK38"/>
     </row>
-    <row r="39" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>33</v>
@@ -3379,7 +3549,7 @@
       <c r="AMJ39"/>
       <c r="AMK39"/>
     </row>
-    <row r="40" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>33</v>
@@ -3421,7 +3591,7 @@
       <c r="AMJ40"/>
       <c r="AMK40"/>
     </row>
-    <row r="41" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>33</v>
@@ -3463,7 +3633,7 @@
       <c r="AMJ41"/>
       <c r="AMK41"/>
     </row>
-    <row r="42" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="1" t="s">
         <v>33</v>
@@ -3503,7 +3673,7 @@
       <c r="AMJ42"/>
       <c r="AMK42"/>
     </row>
-    <row r="43" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
         <v>33</v>
@@ -3543,7 +3713,7 @@
       <c r="AMJ43"/>
       <c r="AMK43"/>
     </row>
-    <row r="44" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
         <v>33</v>
@@ -3585,7 +3755,7 @@
       <c r="AMJ44"/>
       <c r="AMK44"/>
     </row>
-    <row r="45" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="1" t="s">
         <v>33</v>
@@ -3623,7 +3793,7 @@
       <c r="AE45" s="6"/>
       <c r="AF45" s="6"/>
     </row>
-    <row r="46" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>33</v>
@@ -3659,7 +3829,7 @@
       <c r="AE46" s="6"/>
       <c r="AF46" s="6"/>
     </row>
-    <row r="47" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
         <v>33</v>
@@ -3695,7 +3865,7 @@
       <c r="AE47" s="6"/>
       <c r="AF47" s="6"/>
     </row>
-    <row r="48" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>33</v>
@@ -3731,7 +3901,7 @@
       <c r="AE48" s="6"/>
       <c r="AF48" s="6"/>
     </row>
-    <row r="49" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
         <v>33</v>
@@ -3767,7 +3937,7 @@
       <c r="AE49" s="6"/>
       <c r="AF49" s="6"/>
     </row>
-    <row r="50" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
         <v>33</v>
@@ -3803,7 +3973,7 @@
       <c r="AE50" s="6"/>
       <c r="AF50" s="6"/>
     </row>
-    <row r="51" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
         <v>33</v>
@@ -3839,7 +4009,7 @@
       <c r="AE51" s="6"/>
       <c r="AF51" s="6"/>
     </row>
-    <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>33</v>
@@ -3875,102 +4045,102 @@
       <c r="AE52" s="6"/>
       <c r="AF52" s="6"/>
     </row>
-    <row r="53" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="5" t="s">
         <v>15</v>
       </c>
@@ -4004,7 +4174,7 @@
     <mergeCell ref="AA8:AC8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
